--- a/power_calibration.xlsx
+++ b/power_calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Light Sheet User\Documents\GitHub\DMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD787F92-AD7D-4005-B55F-67A806585E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC9FD3-8ED5-4006-BE5A-D2372344CE44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32940" windowHeight="9420" xr2:uid="{F26234F4-C946-4A2A-B5F4-4A810719E32D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>mV</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Power (uW, stronger filter</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,567 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power (uW, stronger filter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6E9-4602-B58F-F101C280A78A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>lower filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6E9-4602-B58F-F101C280A78A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>no filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B6E9-4602-B58F-F101C280A78A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717479936"/>
+        <c:axId val="371506080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717479936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371506080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="371506080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717479936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -237,9 +800,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -252,407 +815,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Power (uW)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>91.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-645E-45BB-B3B1-05F4D202F5E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="221458031"/>
-        <c:axId val="217564223"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="221458031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>V</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="217564223"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="217564223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>P</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (mW)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="221458031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -666,11 +829,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -738,25 +901,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -764,30 +927,31 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -795,14 +959,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -839,62 +1003,78 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -918,16 +1098,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -935,14 +1114,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -953,9 +1132,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -967,12 +1146,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -986,14 +1165,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1005,13 +1184,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1019,12 +1205,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1038,14 +1224,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1057,12 +1243,183 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -1070,170 +1427,29 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1241,13 +1457,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -1257,23 +1480,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>191094</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52981</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A342048-B6C2-49A8-9BCC-4FA6EFE96877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D007B9-64E5-42A2-845E-7D2FA94E097D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,15 +1814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799481F0-47A5-430D-8E1F-0186C2BA3EEC}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1798,6 +2021,111 @@
         <v>21.385620915032678</v>
       </c>
     </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>24.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
